--- a/Daten.xlsx
+++ b/Daten.xlsx
@@ -33408,7 +33408,7 @@
   <dimension ref="A14:AB109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AB37" sqref="AB37"/>
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
